--- a/medicine/Handicap/Handicap_International/Handicap_International.xlsx
+++ b/medicine/Handicap/Handicap_International/Handicap_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Handicap International est une ONG de solidarité internationale qui intervient dans une soixantaine de pays.
@@ -515,14 +527,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ONG est fondée en 1982 à Lyon par deux médecins français, Jean-Baptiste Richardier et Claude Simonnot et un technicien, Yves Gaumeton, tout d'abord pour venir en aide aux personnes réfugiées dans des camps  au Cambodge et en Thaïlande[1],[2] grâce à la formation reçue de Pierre et Raymond Jaccard qui ont développé leur prothèse en Afrique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ONG est fondée en 1982 à Lyon par deux médecins français, Jean-Baptiste Richardier et Claude Simonnot et un technicien, Yves Gaumeton, tout d'abord pour venir en aide aux personnes réfugiées dans des camps  au Cambodge et en Thaïlande, grâce à la formation reçue de Pierre et Raymond Jaccard qui ont développé leur prothèse en Afrique.
 Handicap International a été en 1992 une des six associations fondatrices de la Campagne internationale pour l'interdiction des mines antipersonnel (ICBL), colauréate du prix Nobel de la paix en 1997.
 L'association est lauréate en 2011 du prix de la fondation humanitaire Conrad N. Hilton, d'un montant de 1,5 million de dollars américains, pour son engagement auprès des personnes handicapées vivant dans des situations de pauvreté, d’ exclusion, de conflits ou de catastrophes naturelles.
 En 2017, le footballeur brésilien du Paris Saint-Germain, Neymar devient l'ambassadeur de Handicap International.
-Handicap International a été élu la huitième meilleure organisation non gouvernementale au monde selon le classement 2017 de l’organisme NGO Advisor[4].
-Début 2018, l'ONG adopte un nouveau logo et un nouveau nom d'usage (Humanité et inclusion)[5]. Avec ce nouveau nom, Cossette a lancé la compagne "Be a Lifeline" qui a été dirigée par Olivier Staub, cinéaste et photographe canadien[6]. Cette campagne a gagné un lion de bronze au Festival International de la Créativité de Cannes en 2018 dans la catégorie design[7].
+Handicap International a été élu la huitième meilleure organisation non gouvernementale au monde selon le classement 2017 de l’organisme NGO Advisor.
+Début 2018, l'ONG adopte un nouveau logo et un nouveau nom d'usage (Humanité et inclusion). Avec ce nouveau nom, Cossette a lancé la compagne "Be a Lifeline" qui a été dirigée par Olivier Staub, cinéaste et photographe canadien. Cette campagne a gagné un lion de bronze au Festival International de la Créativité de Cannes en 2018 dans la catégorie design.
 </t>
         </is>
       </c>
@@ -551,11 +565,11 @@
           <t>La prévention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Handicap International mène différentes actions en vue de prévenir l'apparition de handicaps, et cela par des actions de sensibilisation. Les actions de prévention sont menées sur des thématiques très différentes[8].
-Prévention des accidents de la route
-L'association mène des campagnes de sensibilisation et de prévention aux accidents de la route, dans de nombreux pays, pour favoriser des changements de comportements et limiter le nombre d'accidents. Ces actions sont entreprises le plus souvent en partenariat avec les autorités locales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Handicap International mène différentes actions en vue de prévenir l'apparition de handicaps, et cela par des actions de sensibilisation. Les actions de prévention sont menées sur des thématiques très différentes.
 </t>
         </is>
       </c>
@@ -581,10 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>La prévention</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prévention des accidents de la route</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association mène des campagnes de sensibilisation et de prévention aux accidents de la route, dans de nombreux pays, pour favoriser des changements de comportements et limiter le nombre d'accidents. Ces actions sont entreprises le plus souvent en partenariat avec les autorités locales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Handicap_International</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Le déminage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1996, Handicap International a développé un nouveau domaine d’intervention : les projets liés aux mines et aux bombes (notamment les bombes à sous-munitions). Ces projets visent avant tout à diminuer l’impact de la présence des mines antipersonnel sur les populations vivant au milieu de zones minées. Une grande palette d’activités est organisée dans ce cadre :
 programme d’éducation à la prévention des accidents par mines ;
@@ -592,42 +645,11 @@
 collecte d’information sur les accidents ;
 enquête sur l’impact socio-économique de la présence des mines ;
 études sur différents sujets à la suite de l’évolution de ce secteur ;
-BASM : Bombes à sous-munitions[9] ;
-mines antipersonnel[10] ;
+BASM : Bombes à sous-munitions ;
+mines antipersonnel ;
 pièges explosifs.
-Par exemple, depuis 2006, L'ONG mène au Laos une intense campagne de prévention et de déminage au Laos : en 2015, la mission Handicap International au Laos compte 150 personnes dont 80 démineurs[11].
-Le 30 mai 2008, à Dublin, 111 États ont adopté le texte d’un traité international d’interdiction des BASM. Handicap International se félicite de ce texte qui bannira toutes les BASM ayant des conséquences humanitaires inacceptables, et renforcera considérablement l’assistance aux victimes. Certaines clauses du traité sont néanmoins des sources de déception et de vigilance. La mobilisation de la société civile doit se poursuivre afin que le traité soit ratifié dans les plus brefs délais, et que les failles qu’il présente ne permettent pas de dévoyer son esprit[12].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Handicap_International</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>L'aide d'urgence</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, Handicap International a créé en son sein une direction de l'Action d'urgence, composée de spécialistes de l'intervention de crise, destinés à intervenir dans des délais très courts, en cas de crise humanitaire grave et soudaine, à la suite par exemple d'une catastrophe naturelle, d'un conflit armé[13],[14]. L'association était déjà cependant intervenue en urgence dans de nombreux pays, et particulièrement au moment du Tsunami, en Asie fin 2004. L'association intervient en Haïti depuis 2008, mais a beaucoup renforcé son dispositif à la suite du séisme de 2010 à Haïti. Elle comptait, fin septembre 2010, environ 580 personnes au sein de ses équipes, dont plus de 70 expatriés. Il s'agit à ce jour de la plus importante intervention mise en œuvre par Handicap International.
+Par exemple, depuis 2006, L'ONG mène au Laos une intense campagne de prévention et de déminage au Laos : en 2015, la mission Handicap International au Laos compte 150 personnes dont 80 démineurs.
+Le 30 mai 2008, à Dublin, 111 États ont adopté le texte d’un traité international d’interdiction des BASM. Handicap International se félicite de ce texte qui bannira toutes les BASM ayant des conséquences humanitaires inacceptables, et renforcera considérablement l’assistance aux victimes. Certaines clauses du traité sont néanmoins des sources de déception et de vigilance. La mobilisation de la société civile doit se poursuivre afin que le traité soit ratifié dans les plus brefs délais, et que les failles qu’il présente ne permettent pas de dévoyer son esprit.
 </t>
         </is>
       </c>
@@ -653,51 +675,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>L'aide d'urgence</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, Handicap International a créé en son sein une direction de l'Action d'urgence, composée de spécialistes de l'intervention de crise, destinés à intervenir dans des délais très courts, en cas de crise humanitaire grave et soudaine, à la suite par exemple d'une catastrophe naturelle, d'un conflit armé,. L'association était déjà cependant intervenue en urgence dans de nombreux pays, et particulièrement au moment du Tsunami, en Asie fin 2004. L'association intervient en Haïti depuis 2008, mais a beaucoup renforcé son dispositif à la suite du séisme de 2010 à Haïti. Elle comptait, fin septembre 2010, environ 580 personnes au sein de ses équipes, dont plus de 70 expatriés. Il s'agit à ce jour de la plus importante intervention mise en œuvre par Handicap International.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Handicap_International</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>La promotion des droits des personnes handicapées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action de Handicap International se fonde sur l'article 1 de la Déclaration des droits de l'Homme et du citoyen de 1789, qui dispose que « Tous les hommes naissent et demeurent libres et égaux en dignité et en droits ». Environ 500 millions de personnes handicapées dans le monde n'ont pas les moyens de se soigner, que dans les pays en développement, 98 % des enfants handicapés ne vont pas à l'école et que 80 % des personnes en situation de handicap vivent avec moins d'1 euro par jour. Handicap International agit dans près de 60 pays et milite auprès des pouvoirs politiques nationaux et internationaux pour que les droits fondamentaux que sont ceux d'être soigné, d'aller à l'école, de travailler et de s'exprimer soient des droits réels.
 Handicap International soutient l'élaboration de lois nationales en faveur des personnes handicapées. L'association a également contribué à l'élaboration de la loi française pour « l'Égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées », promulguée en février 2005.
 Au niveau international, elle a participé au processus d'élaboration de la Convention relative aux droits des personnes handicapées, adoptée par l'assemblée générale des Nations unies, le 13 décembre 2006.
-Soutenir les associations de personnes handicapées
-Handicap International appuie également les associations de personnes handicapées des pays dans lesquels elle intervient. Son objectif : donner les moyens aux personnes handicapées de promouvoir et de défendre leurs droits  (accès aux services de santé, à l'éducation, à l'emploi, aux sports, à la culture…)[15].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Handicap_International</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Autres activités</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Handicap International mène plus de 300 projets dans 60 pays, en particulier dans des pays en situation de crise aiguë ou chronique. L'organisation est co-lauréate du Prix Nobel de la paix 1997 en tant que membre du comité de coordination de la Campagne internationale pour l'interdiction des mines antipersonnel[16], pour son action déterminante dans la lutte contre les mines[17].
-Cette ONG est active sur beaucoup de fronts. Plus de 3 000 collaborateurs soutiennent l’organisation sur toute la planète.
-Commerce solidaire
-Sac à Sapin, Kit Plio, cartes de vœux, produits cosmétiques naturels, objets artisanaux ou produits alimentaires issus du commerce équitable[18],[19]… Depuis plus de dix ans, Handicap International développe différentes initiatives de commerce solidaire. Notamment en produisant et en distribuant des produits partage tels que le Sac à Sapin et le Kit Plio. Ceux-ci sont fabriqués en France et conditionnés par des personnes handicapées travaillant dans un ESAT. Une partie de leur prix de vente est reversée à Handicap International. Ce qui permet à l’association de financer ces actions auprès des personnes vulnérables.
-Réalisé dans le  respect des hommes, des conditions de travail et des partenaires, chaque produit s'inscrit dans une démarche éthique conforme aux valeurs associatives.
 </t>
         </is>
       </c>
@@ -723,13 +743,123 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>La promotion des droits des personnes handicapées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Soutenir les associations de personnes handicapées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Handicap International appuie également les associations de personnes handicapées des pays dans lesquels elle intervient. Son objectif : donner les moyens aux personnes handicapées de promouvoir et de défendre leurs droits  (accès aux services de santé, à l'éducation, à l'emploi, aux sports, à la culture…).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Handicap_International</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Handicap International mène plus de 300 projets dans 60 pays, en particulier dans des pays en situation de crise aiguë ou chronique. L'organisation est co-lauréate du Prix Nobel de la paix 1997 en tant que membre du comité de coordination de la Campagne internationale pour l'interdiction des mines antipersonnel, pour son action déterminante dans la lutte contre les mines.
+Cette ONG est active sur beaucoup de fronts. Plus de 3 000 collaborateurs soutiennent l’organisation sur toute la planète.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Handicap_International</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Commerce solidaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sac à Sapin, Kit Plio, cartes de vœux, produits cosmétiques naturels, objets artisanaux ou produits alimentaires issus du commerce équitable,… Depuis plus de dix ans, Handicap International développe différentes initiatives de commerce solidaire. Notamment en produisant et en distribuant des produits partage tels que le Sac à Sapin et le Kit Plio. Ceux-ci sont fabriqués en France et conditionnés par des personnes handicapées travaillant dans un ESAT. Une partie de leur prix de vente est reversée à Handicap International. Ce qui permet à l’association de financer ces actions auprès des personnes vulnérables.
+Réalisé dans le  respect des hommes, des conditions de travail et des partenaires, chaque produit s'inscrit dans une démarche éthique conforme aux valeurs associatives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Handicap_International</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_International</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Handicap International est constitué d'un réseau composé d’une Fédération, de huit associations nationales (Allemagne, Belgique, Canada, États-Unis, France, Luxembourg, Royaume-Uni, Suisse) et de l’Institut HI pour l’Action Humanitaire. Chacune de ces dix entités légales est gérée par un conseil d’administration spécifique.
-La Fédération Handicap International, association à but non lucratif de droit français, assure l'animation du réseau et la réalisation des programmes dans le monde [20],[21].
+La Fédération Handicap International, association à but non lucratif de droit français, assure l'animation du réseau et la réalisation des programmes dans le monde ,.
 </t>
         </is>
       </c>
